--- a/NPD-SIS/Possiveis_Aposentadorias.xlsx
+++ b/NPD-SIS/Possiveis_Aposentadorias.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t xml:space="preserve">MATRÍCULA</t>
   </si>
@@ -28,54 +28,90 @@
     <t xml:space="preserve">NOME</t>
   </si>
   <si>
+    <t xml:space="preserve">SIGLA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANO_APOS</t>
   </si>
   <si>
+    <t xml:space="preserve">HELCIO DO PRADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIANO DA ROCHA RIBEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALECSANDRA DE OLIVEIRA LOPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGNES MUNHOZ RUBIRA BABATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPD-PRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE FRANCISCO MARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERIKA GOBI DOS SANTOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEATRIZ DE JESUS COSTA</t>
   </si>
   <si>
+    <t xml:space="preserve">NPD-SIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIANDRA DOS SANTOS JESUS</t>
   </si>
   <si>
     <t xml:space="preserve">WAGNER TEIXEIRA M DA SILVA</t>
   </si>
   <si>
+    <t xml:space="preserve">ELIAS CESAR ARAUJO DE CARVALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIA NORIE MATSUEDA ENAMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENERVAL MENDEZ BATISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIANE TERUMI KAETSU TANAKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE MARIA CAMPOS HENRIQUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMA KIYOKO MURACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIOVALDO CALDEIRA BONO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABIO YOSHIHARU UMADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAGNER RONALDO FERRAREZI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALISON RAFAEL POLPETA FREITAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIZ ANTONIO SANTOS CAPEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARLOS HEROYUKI NARA KUME</t>
   </si>
   <si>
-    <t xml:space="preserve">ELIAS CESAR ARAUJO DE CARVALHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HELCIO DO PRADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCIA NORIE MATSUEDA ENAMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DENERVAL MENDEZ BATISTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCIANE TERUMI KAETSU TANAKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCIANO DA ROCHA RIBEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORMA KIYOKO MURACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE FRANCISCO MARIN</t>
+    <t xml:space="preserve">NPD-SUP</t>
   </si>
   <si>
     <t xml:space="preserve">ANTONIO DA S MARTINS JUNIOR</t>
   </si>
   <si>
-    <t xml:space="preserve">ARIOVALDO CALDEIRA BONO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE MARIA CAMPOS HENRIQUES</t>
-  </si>
-  <si>
     <t xml:space="preserve">LUIS CESAR DE MELLO</t>
   </si>
   <si>
@@ -83,41 +119,22 @@
   </si>
   <si>
     <t xml:space="preserve">MARCIO RICARDO MARTELOZZI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIO YOSHIHARU UMADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALECSANDRA DE OLIVEIRA LOPES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAGNER RONALDO FERRAREZI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALISON RAFAEL POLPETA FREITAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIZ ANTONIO SANTOS CAPEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGNES MUNHOZ RUBIRA BABATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERIKA GOBI DOS SANTOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -177,12 +194,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,16 +224,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -222,277 +244,546 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>234035</v>
+        <v>771327</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>2025</v>
+      <c r="E2" s="1" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <f aca="false">D2-1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>232155</v>
+        <v>922964</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>2025</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">F2</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>2028</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <f aca="false">D3-1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>232148</v>
+        <v>983369</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>2025</v>
+      <c r="D4" s="1" t="n">
+        <f aca="false">F3</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2035</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>893605</v>
+        <v>782665</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>2026</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <f aca="false">D5-1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>975244</v>
+        <v>935171</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>2026</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">F5</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2031</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <f aca="false">D6-1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>771327</v>
+        <v>990673</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>2026</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">F6</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>890648</v>
+        <v>234035</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>2026</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <f aca="false">D8-1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>872632</v>
+        <v>232155</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>2027</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">F8</f>
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <f aca="false">D9-1</f>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>981553</v>
+        <v>232148</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">F9</f>
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="false">D10-1</f>
         <v>11</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>2028</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>922964</v>
+        <v>975244</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>2028</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">F10</f>
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">D11-1</f>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>990082</v>
+        <v>890648</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>2029</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">F11</f>
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <f aca="false">D12-1</f>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>935171</v>
+        <v>872632</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>2031</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">F12</f>
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <f aca="false">D13-1</f>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>944028</v>
+        <v>981553</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>2032</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <f aca="false">F13</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>2028</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <f aca="false">D14-1</f>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>940364</v>
+        <v>942244</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>2032</v>
+        <v>20</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <f aca="false">F14</f>
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>2029</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <f aca="false">D15-1</f>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>942244</v>
+        <v>990082</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <f aca="false">F15</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>2029</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <f aca="false">D16-1</f>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>975237</v>
+        <v>940364</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <f aca="false">F16</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>2032</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <f aca="false">D17-1</f>
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>218</v>
+        <v>975301</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>2033</v>
+        <v>23</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <f aca="false">F17</f>
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>2034</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <f aca="false">D18-1</f>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>942034</v>
+        <v>125</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>2033</v>
+        <v>24</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <f aca="false">F18</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>2035</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <f aca="false">D19-1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>975301</v>
+        <v>185353</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>2034</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <f aca="false">F19</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>2052</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <f aca="false">D20-1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>983369</v>
+        <v>185008</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>2035</v>
+        <v>26</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <f aca="false">F20</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>2053</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <f aca="false">D21-1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>125</v>
+        <v>893605</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>2035</v>
+        <v>27</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <f aca="false">D22-1</f>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>185353</v>
+        <v>944028</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>2052</v>
+        <v>29</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <f aca="false">F22</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>2032</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <f aca="false">D23-1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>185008</v>
+        <v>975237</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>2053</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <f aca="false">F23</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>2032</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <f aca="false">D24-1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>782665</v>
+        <v>218</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <f aca="false">F24</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>2033</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <f aca="false">D25-1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>990673</v>
+        <v>942034</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <f aca="false">F25</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>2033</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <f aca="false">D26-1</f>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/NPD-SIS/Possiveis_Aposentadorias.xlsx
+++ b/NPD-SIS/Possiveis_Aposentadorias.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -129,12 +130,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -151,13 +151,25 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,6 +216,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,11 +242,11 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.87"/>
@@ -795,4 +811,499 @@
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="6.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="n">
+        <f aca="false">SUM(A1:C50)</f>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>